--- a/data.xlsx
+++ b/data.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="users" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="posts" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="not-data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="users" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="posts" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -42,7 +43,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
   <si>
     <t>key</t>
   </si>
@@ -83,13 +102,13 @@
     <t>user</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
     <t>hello, world.</t>
+  </si>
+  <si>
+    <t>will Ignored data</t>
   </si>
   <si>
     <t>john's post 2.</t>
@@ -102,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -113,8 +132,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,22 +146,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -147,7 +202,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -163,6 +218,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -369,72 +428,80 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.63"/>
+    <col customWidth="1" min="3" max="3" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="3.75"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="D3" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D4" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="D5" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -449,70 +516,159 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-2.0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7.52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
